--- a/Design/Excel/Localization.xlsx
+++ b/Design/Excel/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18135"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1288,17 +1288,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Courier New"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2092,9 +2092,10 @@
     <col min="1" max="1" width="8.83333333333333" style="1"/>
     <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83333333333333" style="1"/>
+    <col min="4" max="4" width="40.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
